--- a/Phase7_Python/sorted_particle_data_corrected.xlsx
+++ b/Phase7_Python/sorted_particle_data_corrected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Phase7_Python/sorted_particle_data_corrected.xlsx
+++ b/Phase7_Python/sorted_particle_data_corrected.xlsx
@@ -446,119 +446,119 @@
         <v>-72.65900000000001</v>
       </c>
       <c r="B2" t="n">
-        <v>-217.97</v>
+        <v>-218.02</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-70.16200000000001</v>
+        <v>-70.14400000000001</v>
       </c>
       <c r="B3" t="n">
-        <v>-208.68</v>
+        <v>-217.91</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-67.491</v>
+        <v>-67.465</v>
       </c>
       <c r="B4" t="n">
-        <v>-199.43</v>
+        <v>-217.83</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-64.90000000000001</v>
+        <v>-64.892</v>
       </c>
       <c r="B5" t="n">
-        <v>-190.09</v>
+        <v>-217.78</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-62.153</v>
+        <v>-62.264</v>
       </c>
       <c r="B6" t="n">
-        <v>-180.73</v>
+        <v>-217.64</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-59.651</v>
+        <v>-59.609</v>
       </c>
       <c r="B7" t="n">
-        <v>-171.44</v>
+        <v>-217.59</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-56.929</v>
+        <v>-56.934</v>
       </c>
       <c r="B8" t="n">
-        <v>-162.26</v>
+        <v>-217.53</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-54.253</v>
+        <v>-54.285</v>
       </c>
       <c r="B9" t="n">
-        <v>-153</v>
+        <v>-217.47</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-51.588</v>
+        <v>-51.63</v>
       </c>
       <c r="B10" t="n">
-        <v>-143.7</v>
+        <v>-217.38</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-48.84</v>
+        <v>-48.856</v>
       </c>
       <c r="B11" t="n">
-        <v>-134.46</v>
+        <v>-217.31</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-46.146</v>
+        <v>-46.14</v>
       </c>
       <c r="B12" t="n">
-        <v>-125.3</v>
+        <v>-217.26</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-43.417</v>
+        <v>-43.441</v>
       </c>
       <c r="B13" t="n">
-        <v>-115.99</v>
+        <v>-217.2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-40.685</v>
+        <v>-40.686</v>
       </c>
       <c r="B14" t="n">
-        <v>-106.79</v>
+        <v>-217.1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-37.929</v>
+        <v>-37.966</v>
       </c>
       <c r="B15" t="n">
-        <v>-97.608</v>
+        <v>-217.09</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-35.183</v>
+        <v>-35.276</v>
       </c>
       <c r="B16" t="n">
-        <v>-88.41200000000001</v>
+        <v>-217.06</v>
       </c>
     </row>
     <row r="17">
@@ -566,447 +566,447 @@
         <v>-32.399</v>
       </c>
       <c r="B17" t="n">
-        <v>-79.217</v>
+        <v>-216.92</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-29.68</v>
+        <v>-29.637</v>
       </c>
       <c r="B18" t="n">
-        <v>-70.00700000000001</v>
+        <v>-216.93</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-26.951</v>
+        <v>-26.85</v>
       </c>
       <c r="B19" t="n">
-        <v>-60.747</v>
+        <v>-216.94</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-24.066</v>
+        <v>-24.044</v>
       </c>
       <c r="B20" t="n">
-        <v>-51.619</v>
+        <v>-216.86</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-21.239</v>
+        <v>-21.303</v>
       </c>
       <c r="B21" t="n">
-        <v>-42.458</v>
+        <v>-216.83</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>-18.48</v>
+        <v>-18.475</v>
       </c>
       <c r="B22" t="n">
-        <v>-33.231</v>
+        <v>-216.8</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-15.661</v>
+        <v>-15.643</v>
       </c>
       <c r="B23" t="n">
-        <v>-24.032</v>
+        <v>-216.78</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>-12.885</v>
+        <v>-12.857</v>
       </c>
       <c r="B24" t="n">
-        <v>-14.862</v>
+        <v>-216.72</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-10.051</v>
+        <v>-10.113</v>
       </c>
       <c r="B25" t="n">
-        <v>-5.664</v>
+        <v>-216.73</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-7.1986</v>
+        <v>-7.2721</v>
       </c>
       <c r="B26" t="n">
-        <v>3.5274</v>
+        <v>-216.73</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-4.4375</v>
+        <v>-4.3669</v>
       </c>
       <c r="B27" t="n">
-        <v>12.674</v>
+        <v>-216.77</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-1.6285</v>
+        <v>-1.59</v>
       </c>
       <c r="B28" t="n">
-        <v>21.816</v>
+        <v>-216.74</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1.2262</v>
+        <v>1.2506</v>
       </c>
       <c r="B29" t="n">
-        <v>31.069</v>
+        <v>-216.71</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>4.0233</v>
+        <v>4.0106</v>
       </c>
       <c r="B30" t="n">
-        <v>40.213</v>
+        <v>-216.7</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>6.8573</v>
+        <v>6.8871</v>
       </c>
       <c r="B31" t="n">
-        <v>49.413</v>
+        <v>-216.76</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>9.6487</v>
+        <v>9.6633</v>
       </c>
       <c r="B32" t="n">
-        <v>58.562</v>
+        <v>-216.7</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>12.51</v>
+        <v>12.484</v>
       </c>
       <c r="B33" t="n">
-        <v>67.77500000000001</v>
+        <v>-216.73</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>15.35</v>
+        <v>15.349</v>
       </c>
       <c r="B34" t="n">
-        <v>76.93000000000001</v>
+        <v>-216.74</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>18.069</v>
+        <v>18.153</v>
       </c>
       <c r="B35" t="n">
-        <v>86.093</v>
+        <v>-216.8</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>20.884</v>
+        <v>20.941</v>
       </c>
       <c r="B36" t="n">
-        <v>95.374</v>
+        <v>-216.77</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>23.694</v>
+        <v>23.745</v>
       </c>
       <c r="B37" t="n">
-        <v>104.52</v>
+        <v>-216.79</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>26.497</v>
+        <v>26.453</v>
       </c>
       <c r="B38" t="n">
-        <v>113.73</v>
+        <v>-216.85</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>29.265</v>
+        <v>29.292</v>
       </c>
       <c r="B39" t="n">
-        <v>122.86</v>
+        <v>-216.9</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>32.022</v>
+        <v>32.098</v>
       </c>
       <c r="B40" t="n">
-        <v>132.13</v>
+        <v>-216.95</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>34.827</v>
+        <v>34.851</v>
       </c>
       <c r="B41" t="n">
-        <v>141.32</v>
+        <v>-217.02</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>37.634</v>
+        <v>37.597</v>
       </c>
       <c r="B42" t="n">
-        <v>150.56</v>
+        <v>-217.02</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>40.348</v>
+        <v>40.344</v>
       </c>
       <c r="B43" t="n">
-        <v>159.82</v>
+        <v>-217.1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>43.059</v>
+        <v>43.111</v>
       </c>
       <c r="B44" t="n">
-        <v>169.03</v>
+        <v>-217.09</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>45.836</v>
+        <v>45.825</v>
       </c>
       <c r="B45" t="n">
-        <v>178.25</v>
+        <v>-217.23</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>48.535</v>
+        <v>48.529</v>
       </c>
       <c r="B46" t="n">
-        <v>187.47</v>
+        <v>-217.26</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>51.2</v>
+        <v>51.16</v>
       </c>
       <c r="B47" t="n">
-        <v>196.77</v>
+        <v>-217.33</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>53.946</v>
+        <v>53.943</v>
       </c>
       <c r="B48" t="n">
-        <v>206.11</v>
+        <v>-217.37</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>56.583</v>
+        <v>56.544</v>
       </c>
       <c r="B49" t="n">
-        <v>215.32</v>
+        <v>-217.47</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>59.264</v>
+        <v>59.29</v>
       </c>
       <c r="B50" t="n">
-        <v>224.54</v>
+        <v>-217.55</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>61.901</v>
+        <v>61.934</v>
       </c>
       <c r="B51" t="n">
-        <v>233.84</v>
+        <v>-217.64</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>64.571</v>
+        <v>64.574</v>
       </c>
       <c r="B52" t="n">
-        <v>243.18</v>
+        <v>-217.66</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>67.16500000000001</v>
+        <v>67.185</v>
       </c>
       <c r="B53" t="n">
-        <v>252.51</v>
+        <v>-217.79</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>69.76900000000001</v>
+        <v>69.759</v>
       </c>
       <c r="B54" t="n">
-        <v>261.83</v>
+        <v>-217.89</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>72.354</v>
+        <v>72.327</v>
       </c>
       <c r="B55" t="n">
-        <v>271.21</v>
+        <v>-217.94</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>74.95099999999999</v>
+        <v>74.904</v>
       </c>
       <c r="B56" t="n">
-        <v>280.54</v>
+        <v>-218.05</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>77.38200000000001</v>
+        <v>77.46899999999999</v>
       </c>
       <c r="B57" t="n">
-        <v>289.89</v>
+        <v>-218.14</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>80.005</v>
+        <v>79.97199999999999</v>
       </c>
       <c r="B58" t="n">
-        <v>299.26</v>
+        <v>-218.23</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>82.495</v>
+        <v>82.46899999999999</v>
       </c>
       <c r="B59" t="n">
-        <v>308.69</v>
+        <v>-218.4</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>84.989</v>
+        <v>84.944</v>
       </c>
       <c r="B60" t="n">
-        <v>318.04</v>
+        <v>-218.42</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>87.399</v>
+        <v>87.398</v>
       </c>
       <c r="B61" t="n">
-        <v>327.48</v>
+        <v>-218.62</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>89.92400000000001</v>
+        <v>89.845</v>
       </c>
       <c r="B62" t="n">
-        <v>336.98</v>
+        <v>-218.71</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>92.291</v>
+        <v>92.27500000000001</v>
       </c>
       <c r="B63" t="n">
-        <v>346.37</v>
+        <v>-218.78</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>94.625</v>
+        <v>94.636</v>
       </c>
       <c r="B64" t="n">
-        <v>355.86</v>
+        <v>-218.91</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>97.033</v>
+        <v>96.991</v>
       </c>
       <c r="B65" t="n">
-        <v>365.34</v>
+        <v>-219.08</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>99.358</v>
+        <v>99.29600000000001</v>
       </c>
       <c r="B66" t="n">
-        <v>374.79</v>
+        <v>-219.21</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>101.64</v>
+        <v>101.69</v>
       </c>
       <c r="B67" t="n">
-        <v>384.34</v>
+        <v>-219.32</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>103.89</v>
+        <v>103.91</v>
       </c>
       <c r="B68" t="n">
-        <v>393.91</v>
+        <v>-219.48</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>106.2</v>
+        <v>106.18</v>
       </c>
       <c r="B69" t="n">
-        <v>403.45</v>
+        <v>-219.57</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>108.38</v>
+        <v>108.42</v>
       </c>
       <c r="B70" t="n">
-        <v>413.04</v>
+        <v>-219.73</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>110.63</v>
+        <v>110.62</v>
       </c>
       <c r="B71" t="n">
-        <v>422.59</v>
+        <v>-219.89</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>112.79</v>
+        <v>112.74</v>
       </c>
       <c r="B72" t="n">
-        <v>432.19</v>
+        <v>-219.99</v>
       </c>
     </row>
     <row r="73">
@@ -1014,31 +1014,31 @@
         <v>114.88</v>
       </c>
       <c r="B73" t="n">
-        <v>441.81</v>
+        <v>-220.25</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>117.01</v>
+        <v>117.03</v>
       </c>
       <c r="B74" t="n">
-        <v>451.43</v>
+        <v>-220.31</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>119.08</v>
+        <v>119.12</v>
       </c>
       <c r="B75" t="n">
-        <v>461.1</v>
+        <v>-220.49</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>121.1</v>
+        <v>121.16</v>
       </c>
       <c r="B76" t="n">
-        <v>470.82</v>
+        <v>-220.63</v>
       </c>
     </row>
     <row r="77">
@@ -1046,15 +1046,15 @@
         <v>123.19</v>
       </c>
       <c r="B77" t="n">
-        <v>480.49</v>
+        <v>-220.78</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>125.16</v>
+        <v>125.14</v>
       </c>
       <c r="B78" t="n">
-        <v>490.18</v>
+        <v>-221</v>
       </c>
     </row>
     <row r="79">
@@ -1062,7 +1062,7 @@
         <v>127.13</v>
       </c>
       <c r="B79" t="n">
-        <v>499.94</v>
+        <v>-221.14</v>
       </c>
     </row>
     <row r="80">
@@ -1070,127 +1070,127 @@
         <v>129</v>
       </c>
       <c r="B80" t="n">
-        <v>509.74</v>
+        <v>-221.34</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>130.89</v>
+        <v>130.87</v>
       </c>
       <c r="B81" t="n">
-        <v>519.46</v>
+        <v>-221.49</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>132.73</v>
+        <v>132.75</v>
       </c>
       <c r="B82" t="n">
-        <v>529.25</v>
+        <v>-221.68</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>134.51</v>
+        <v>134.59</v>
       </c>
       <c r="B83" t="n">
-        <v>539.17</v>
+        <v>-221.78</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>136.36</v>
+        <v>136.35</v>
       </c>
       <c r="B84" t="n">
-        <v>548.95</v>
+        <v>-222</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>138.01</v>
+        <v>138.03</v>
       </c>
       <c r="B85" t="n">
-        <v>558.78</v>
+        <v>-222.16</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>139.73</v>
+        <v>139.74</v>
       </c>
       <c r="B86" t="n">
-        <v>568.71</v>
+        <v>-222.37</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>141.36</v>
+        <v>141.42</v>
       </c>
       <c r="B87" t="n">
-        <v>578.52</v>
+        <v>-222.61</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>142.97</v>
+        <v>143.04</v>
       </c>
       <c r="B88" t="n">
-        <v>588.53</v>
+        <v>-222.76</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>144.6</v>
+        <v>144.54</v>
       </c>
       <c r="B89" t="n">
-        <v>598.48</v>
+        <v>-222.95</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>146.12</v>
+        <v>146.1</v>
       </c>
       <c r="B90" t="n">
-        <v>608.45</v>
+        <v>-223.16</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>147.61</v>
+        <v>147.59</v>
       </c>
       <c r="B91" t="n">
-        <v>618.47</v>
+        <v>-223.31</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>149.04</v>
+        <v>149.05</v>
       </c>
       <c r="B92" t="n">
-        <v>628.47</v>
+        <v>-223.55</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>150.46</v>
+        <v>150.49</v>
       </c>
       <c r="B93" t="n">
-        <v>638.49</v>
+        <v>-223.77</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>151.88</v>
+        <v>151.89</v>
       </c>
       <c r="B94" t="n">
-        <v>648.6</v>
+        <v>-224.01</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>153.16</v>
+        <v>153.18</v>
       </c>
       <c r="B95" t="n">
-        <v>658.6900000000001</v>
+        <v>-224.15</v>
       </c>
     </row>
     <row r="96">
@@ -1198,23 +1198,23 @@
         <v>154.49</v>
       </c>
       <c r="B96" t="n">
-        <v>668.76</v>
+        <v>-224.33</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>155.71</v>
+        <v>155.73</v>
       </c>
       <c r="B97" t="n">
-        <v>678.89</v>
+        <v>-224.56</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>156.9</v>
+        <v>156.97</v>
       </c>
       <c r="B98" t="n">
-        <v>689.05</v>
+        <v>-224.77</v>
       </c>
     </row>
     <row r="99">
@@ -1222,39 +1222,39 @@
         <v>158.07</v>
       </c>
       <c r="B99" t="n">
-        <v>699.26</v>
+        <v>-224.99</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>159.22</v>
+        <v>159.21</v>
       </c>
       <c r="B100" t="n">
-        <v>709.45</v>
+        <v>-225.21</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>160.23</v>
+        <v>160.2</v>
       </c>
       <c r="B101" t="n">
-        <v>719.6900000000001</v>
+        <v>-225.41</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>161.26</v>
+        <v>161.31</v>
       </c>
       <c r="B102" t="n">
-        <v>729.89</v>
+        <v>-225.62</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>162.25</v>
+        <v>162.2</v>
       </c>
       <c r="B103" t="n">
-        <v>740.2</v>
+        <v>-225.83</v>
       </c>
     </row>
     <row r="104">
@@ -1262,63 +1262,63 @@
         <v>163.15</v>
       </c>
       <c r="B104" t="n">
-        <v>750.51</v>
+        <v>-226.06</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>164.03</v>
+        <v>164.04</v>
       </c>
       <c r="B105" t="n">
-        <v>760.79</v>
+        <v>-226.32</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>164.85</v>
+        <v>164.81</v>
       </c>
       <c r="B106" t="n">
-        <v>771.15</v>
+        <v>-226.6</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>165.62</v>
+        <v>165.63</v>
       </c>
       <c r="B107" t="n">
-        <v>781.58</v>
+        <v>-226.68</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>166.34</v>
+        <v>166.37</v>
       </c>
       <c r="B108" t="n">
-        <v>791.91</v>
+        <v>-226.94</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>167.03</v>
+        <v>167.07</v>
       </c>
       <c r="B109" t="n">
-        <v>802.3</v>
+        <v>-227.18</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>167.67</v>
+        <v>167.66</v>
       </c>
       <c r="B110" t="n">
-        <v>812.77</v>
+        <v>-227.39</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>168.31</v>
+        <v>168.29</v>
       </c>
       <c r="B111" t="n">
-        <v>823.23</v>
+        <v>-227.6</v>
       </c>
     </row>
     <row r="112">
@@ -1326,55 +1326,55 @@
         <v>168.77</v>
       </c>
       <c r="B112" t="n">
-        <v>833.77</v>
+        <v>-227.87</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>169.32</v>
+        <v>169.23</v>
       </c>
       <c r="B113" t="n">
-        <v>844.22</v>
+        <v>-228.09</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>169.68</v>
+        <v>169.7</v>
       </c>
       <c r="B114" t="n">
-        <v>854.75</v>
+        <v>-228.31</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>170.1</v>
+        <v>170.12</v>
       </c>
       <c r="B115" t="n">
-        <v>865.3200000000001</v>
+        <v>-228.52</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>170.43</v>
+        <v>170.48</v>
       </c>
       <c r="B116" t="n">
-        <v>875.9</v>
+        <v>-228.74</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>170.73</v>
+        <v>170.66</v>
       </c>
       <c r="B117" t="n">
-        <v>886.45</v>
+        <v>-229.02</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>170.92</v>
+        <v>170.91</v>
       </c>
       <c r="B118" t="n">
-        <v>897.09</v>
+        <v>-229.23</v>
       </c>
     </row>
     <row r="119">
@@ -1382,15 +1382,15 @@
         <v>171.11</v>
       </c>
       <c r="B119" t="n">
-        <v>907.74</v>
+        <v>-229.51</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>171.26</v>
+        <v>171.24</v>
       </c>
       <c r="B120" t="n">
-        <v>918.33</v>
+        <v>-229.75</v>
       </c>
     </row>
     <row r="121">
@@ -1398,47 +1398,47 @@
         <v>171.32</v>
       </c>
       <c r="B121" t="n">
-        <v>929.14</v>
+        <v>-229.93</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>171.32</v>
+        <v>171.38</v>
       </c>
       <c r="B122" t="n">
-        <v>939.84</v>
+        <v>-230.19</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>171.34</v>
+        <v>171.32</v>
       </c>
       <c r="B123" t="n">
-        <v>950.54</v>
+        <v>-230.52</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>171.25</v>
+        <v>171.22</v>
       </c>
       <c r="B124" t="n">
-        <v>961.24</v>
+        <v>-230.65</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>171.11</v>
+        <v>171.12</v>
       </c>
       <c r="B125" t="n">
-        <v>972.1</v>
+        <v>-230.89</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>170.92</v>
+        <v>170.89</v>
       </c>
       <c r="B126" t="n">
-        <v>982.85</v>
+        <v>-231.14</v>
       </c>
     </row>
     <row r="127">
@@ -1446,55 +1446,55 @@
         <v>170.66</v>
       </c>
       <c r="B127" t="n">
-        <v>993.65</v>
+        <v>-231.34</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>170.39</v>
+        <v>170.43</v>
       </c>
       <c r="B128" t="n">
-        <v>1004.5</v>
+        <v>-231.58</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>170.03</v>
+        <v>170.04</v>
       </c>
       <c r="B129" t="n">
-        <v>1015.3</v>
+        <v>-231.83</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>169.7</v>
+        <v>169.62</v>
       </c>
       <c r="B130" t="n">
-        <v>1026.1</v>
+        <v>-232.04</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>169.25</v>
+        <v>169.21</v>
       </c>
       <c r="B131" t="n">
-        <v>1037.1</v>
+        <v>-232.33</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>168.71</v>
+        <v>168.7</v>
       </c>
       <c r="B132" t="n">
-        <v>1047.9</v>
+        <v>-232.55</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>168.11</v>
+        <v>168.14</v>
       </c>
       <c r="B133" t="n">
-        <v>1058.9</v>
+        <v>-232.81</v>
       </c>
     </row>
     <row r="134">
@@ -1502,39 +1502,39 @@
         <v>167.52</v>
       </c>
       <c r="B134" t="n">
-        <v>1069.8</v>
+        <v>-233.04</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>166.86</v>
+        <v>166.81</v>
       </c>
       <c r="B135" t="n">
-        <v>1080.8</v>
+        <v>-233.27</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>166.13</v>
+        <v>166.11</v>
       </c>
       <c r="B136" t="n">
-        <v>1091.8</v>
+        <v>-233.46</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>165.37</v>
+        <v>165.33</v>
       </c>
       <c r="B137" t="n">
-        <v>1102.8</v>
+        <v>-233.7</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>164.56</v>
+        <v>164.51</v>
       </c>
       <c r="B138" t="n">
-        <v>1113.7</v>
+        <v>-233.92</v>
       </c>
     </row>
     <row r="139">
@@ -1542,7 +1542,7 @@
         <v>163.66</v>
       </c>
       <c r="B139" t="n">
-        <v>1124.8</v>
+        <v>-234.18</v>
       </c>
     </row>
     <row r="140">
@@ -1550,7 +1550,7 @@
         <v>162.69</v>
       </c>
       <c r="B140" t="n">
-        <v>1135.8</v>
+        <v>-234.44</v>
       </c>
     </row>
     <row r="141">
@@ -1558,23 +1558,23 @@
         <v>161.74</v>
       </c>
       <c r="B141" t="n">
-        <v>1146.9</v>
+        <v>-234.6</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>160.74</v>
+        <v>160.71</v>
       </c>
       <c r="B142" t="n">
-        <v>1157.9</v>
+        <v>-234.89</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>159.63</v>
+        <v>159.65</v>
       </c>
       <c r="B143" t="n">
-        <v>1169</v>
+        <v>-235.09</v>
       </c>
     </row>
     <row r="144">
@@ -1582,87 +1582,87 @@
         <v>158.51</v>
       </c>
       <c r="B144" t="n">
-        <v>1180.1</v>
+        <v>-235.32</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>157.27</v>
+        <v>157.3</v>
       </c>
       <c r="B145" t="n">
-        <v>1191.2</v>
+        <v>-235.57</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>156.09</v>
+        <v>156.03</v>
       </c>
       <c r="B146" t="n">
-        <v>1202.2</v>
+        <v>-235.73</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>154.76</v>
+        <v>154.77</v>
       </c>
       <c r="B147" t="n">
-        <v>1213.4</v>
+        <v>-235.93</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>153.44</v>
+        <v>153.43</v>
       </c>
       <c r="B148" t="n">
-        <v>1224.6</v>
+        <v>-236.18</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>152.02</v>
+        <v>152.04</v>
       </c>
       <c r="B149" t="n">
-        <v>1235.7</v>
+        <v>-236.38</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>150.5</v>
+        <v>150.61</v>
       </c>
       <c r="B150" t="n">
-        <v>1246.8</v>
+        <v>-236.57</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>149.01</v>
+        <v>149.1</v>
       </c>
       <c r="B151" t="n">
-        <v>1257.9</v>
+        <v>-236.83</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>147.54</v>
+        <v>147.49</v>
       </c>
       <c r="B152" t="n">
-        <v>1269.1</v>
+        <v>-237.06</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>145.95</v>
+        <v>145.92</v>
       </c>
       <c r="B153" t="n">
-        <v>1280.3</v>
+        <v>-237.26</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>144.32</v>
+        <v>144.34</v>
       </c>
       <c r="B154" t="n">
-        <v>1291.5</v>
+        <v>-237.48</v>
       </c>
     </row>
     <row r="155">
@@ -1670,23 +1670,23 @@
         <v>142.62</v>
       </c>
       <c r="B155" t="n">
-        <v>1302.7</v>
+        <v>-237.7</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>140.89</v>
+        <v>140.86</v>
       </c>
       <c r="B156" t="n">
-        <v>1313.9</v>
+        <v>-237.86</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>139.11</v>
+        <v>139.06</v>
       </c>
       <c r="B157" t="n">
-        <v>1325</v>
+        <v>-238.03</v>
       </c>
     </row>
     <row r="158">
@@ -1694,151 +1694,151 @@
         <v>137.24</v>
       </c>
       <c r="B158" t="n">
-        <v>1336.3</v>
+        <v>-238.22</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>135.3</v>
+        <v>135.35</v>
       </c>
       <c r="B159" t="n">
-        <v>1347.4</v>
+        <v>-238.48</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>133.4</v>
+        <v>133.46</v>
       </c>
       <c r="B160" t="n">
-        <v>1358.6</v>
+        <v>-238.58</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>131.49</v>
+        <v>131.51</v>
       </c>
       <c r="B161" t="n">
-        <v>1369.9</v>
+        <v>-238.8</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>129.42</v>
+        <v>129.47</v>
       </c>
       <c r="B162" t="n">
-        <v>1381</v>
+        <v>-238.96</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>127.4</v>
+        <v>127.43</v>
       </c>
       <c r="B163" t="n">
-        <v>1392.2</v>
+        <v>-239.2</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>125.3</v>
+        <v>125.29</v>
       </c>
       <c r="B164" t="n">
-        <v>1403.4</v>
+        <v>-239.4</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>123.11</v>
+        <v>123.14</v>
       </c>
       <c r="B165" t="n">
-        <v>1414.6</v>
+        <v>-239.53</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>120.89</v>
+        <v>120.96</v>
       </c>
       <c r="B166" t="n">
-        <v>1425.9</v>
+        <v>-239.76</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>118.7</v>
+        <v>118.75</v>
       </c>
       <c r="B167" t="n">
-        <v>1437</v>
+        <v>-239.87</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>116.44</v>
+        <v>116.48</v>
       </c>
       <c r="B168" t="n">
-        <v>1448.2</v>
+        <v>-240.06</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>114.13</v>
+        <v>114.16</v>
       </c>
       <c r="B169" t="n">
-        <v>1459.4</v>
+        <v>-240.22</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>111.84</v>
+        <v>111.8</v>
       </c>
       <c r="B170" t="n">
-        <v>1470.6</v>
+        <v>-240.4</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>109.32</v>
+        <v>109.38</v>
       </c>
       <c r="B171" t="n">
-        <v>1481.7</v>
+        <v>-240.59</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>106.92</v>
+        <v>106.96</v>
       </c>
       <c r="B172" t="n">
-        <v>1492.9</v>
+        <v>-240.73</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>104.5</v>
+        <v>104.47</v>
       </c>
       <c r="B173" t="n">
-        <v>1504.1</v>
+        <v>-240.87</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>101.98</v>
+        <v>102</v>
       </c>
       <c r="B174" t="n">
-        <v>1515.2</v>
+        <v>-241.05</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>99.437</v>
+        <v>99.45699999999999</v>
       </c>
       <c r="B175" t="n">
-        <v>1526.3</v>
+        <v>-241.16</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>96.89700000000001</v>
+        <v>96.827</v>
       </c>
       <c r="B176" t="n">
-        <v>1537.4</v>
+        <v>-241.37</v>
       </c>
     </row>
     <row r="177">
@@ -1846,527 +1846,527 @@
         <v>94.295</v>
       </c>
       <c r="B177" t="n">
-        <v>1548.6</v>
+        <v>-241.45</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>91.605</v>
+        <v>91.648</v>
       </c>
       <c r="B178" t="n">
-        <v>1559.6</v>
+        <v>-241.56</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>89.009</v>
+        <v>88.93899999999999</v>
       </c>
       <c r="B179" t="n">
-        <v>1570.7</v>
+        <v>-241.67</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>86.253</v>
+        <v>86.274</v>
       </c>
       <c r="B180" t="n">
-        <v>1581.8</v>
+        <v>-241.82</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>83.518</v>
+        <v>83.54300000000001</v>
       </c>
       <c r="B181" t="n">
-        <v>1592.8</v>
+        <v>-241.93</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>80.736</v>
+        <v>80.771</v>
       </c>
       <c r="B182" t="n">
-        <v>1603.9</v>
+        <v>-242.1</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>77.999</v>
+        <v>77.98699999999999</v>
       </c>
       <c r="B183" t="n">
-        <v>1614.9</v>
+        <v>-242.23</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>75.157</v>
+        <v>75.12</v>
       </c>
       <c r="B184" t="n">
-        <v>1626</v>
+        <v>-242.27</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>72.279</v>
+        <v>72.273</v>
       </c>
       <c r="B185" t="n">
-        <v>1636.9</v>
+        <v>-242.38</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>69.404</v>
+        <v>69.429</v>
       </c>
       <c r="B186" t="n">
-        <v>1647.9</v>
+        <v>-242.51</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>66.471</v>
+        <v>66.536</v>
       </c>
       <c r="B187" t="n">
-        <v>1658.9</v>
+        <v>-242.59</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>63.567</v>
+        <v>63.592</v>
       </c>
       <c r="B188" t="n">
-        <v>1669.8</v>
+        <v>-242.66</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>60.656</v>
+        <v>60.641</v>
       </c>
       <c r="B189" t="n">
-        <v>1680.7</v>
+        <v>-242.81</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>57.671</v>
+        <v>57.697</v>
       </c>
       <c r="B190" t="n">
-        <v>1691.6</v>
+        <v>-242.84</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>54.638</v>
+        <v>54.668</v>
       </c>
       <c r="B191" t="n">
-        <v>1702.5</v>
+        <v>-242.9</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>51.755</v>
+        <v>51.652</v>
       </c>
       <c r="B192" t="n">
-        <v>1713.3</v>
+        <v>-243.05</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>48.649</v>
+        <v>48.674</v>
       </c>
       <c r="B193" t="n">
-        <v>1724.1</v>
+        <v>-243.16</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>45.585</v>
+        <v>45.577</v>
       </c>
       <c r="B194" t="n">
-        <v>1735</v>
+        <v>-243.17</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>42.583</v>
+        <v>42.59</v>
       </c>
       <c r="B195" t="n">
-        <v>1745.7</v>
+        <v>-243.18</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>39.455</v>
+        <v>39.457</v>
       </c>
       <c r="B196" t="n">
-        <v>1756.4</v>
+        <v>-243.3</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>36.375</v>
+        <v>36.403</v>
       </c>
       <c r="B197" t="n">
-        <v>1767.1</v>
+        <v>-243.31</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>33.273</v>
+        <v>33.364</v>
       </c>
       <c r="B198" t="n">
-        <v>1777.8</v>
+        <v>-243.38</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>30.149</v>
+        <v>30.199</v>
       </c>
       <c r="B199" t="n">
-        <v>1788.4</v>
+        <v>-243.44</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>27.001</v>
+        <v>27.021</v>
       </c>
       <c r="B200" t="n">
-        <v>1799.1</v>
+        <v>-243.47</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>23.912</v>
+        <v>23.923</v>
       </c>
       <c r="B201" t="n">
-        <v>1809.7</v>
+        <v>-243.53</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>20.779</v>
+        <v>20.806</v>
       </c>
       <c r="B202" t="n">
-        <v>1820.2</v>
+        <v>-243.5</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>17.577</v>
+        <v>17.632</v>
       </c>
       <c r="B203" t="n">
-        <v>1830.7</v>
+        <v>-243.53</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>14.45</v>
+        <v>14.448</v>
       </c>
       <c r="B204" t="n">
-        <v>1841.3</v>
+        <v>-243.63</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>11.333</v>
+        <v>11.263</v>
       </c>
       <c r="B205" t="n">
-        <v>1851.7</v>
+        <v>-243.6</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>8.170299999999999</v>
+        <v>8.1235</v>
       </c>
       <c r="B206" t="n">
-        <v>1862.2</v>
+        <v>-243.61</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>4.998</v>
+        <v>4.9953</v>
       </c>
       <c r="B207" t="n">
-        <v>1872.6</v>
+        <v>-243.61</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>1.7733</v>
+        <v>1.81</v>
       </c>
       <c r="B208" t="n">
-        <v>1882.9</v>
+        <v>-243.68</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>-1.3752</v>
+        <v>-1.395</v>
       </c>
       <c r="B209" t="n">
-        <v>1893.3</v>
+        <v>-243.64</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>-4.5599</v>
+        <v>-4.5064</v>
       </c>
       <c r="B210" t="n">
-        <v>1903.5</v>
+        <v>-243.62</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>-7.7303</v>
+        <v>-7.7671</v>
       </c>
       <c r="B211" t="n">
-        <v>1913.8</v>
+        <v>-243.57</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>-10.903</v>
+        <v>-10.874</v>
       </c>
       <c r="B212" t="n">
-        <v>1924</v>
+        <v>-243.6</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>-14.05</v>
+        <v>-14.066</v>
       </c>
       <c r="B213" t="n">
-        <v>1934.2</v>
+        <v>-243.55</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>-17.192</v>
+        <v>-17.235</v>
       </c>
       <c r="B214" t="n">
-        <v>1944.3</v>
+        <v>-243.5</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>-20.309</v>
+        <v>-20.367</v>
       </c>
       <c r="B215" t="n">
-        <v>1954.4</v>
+        <v>-243.56</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>-23.454</v>
+        <v>-23.546</v>
       </c>
       <c r="B216" t="n">
-        <v>1964.5</v>
+        <v>-243.51</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>-26.627</v>
+        <v>-26.641</v>
       </c>
       <c r="B217" t="n">
-        <v>1974.5</v>
+        <v>-243.47</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>-29.752</v>
+        <v>-29.79</v>
       </c>
       <c r="B218" t="n">
-        <v>1984.5</v>
+        <v>-243.4</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>-32.948</v>
+        <v>-32.907</v>
       </c>
       <c r="B219" t="n">
-        <v>1994.4</v>
+        <v>-243.36</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>-36.031</v>
+        <v>-35.997</v>
       </c>
       <c r="B220" t="n">
-        <v>2004.3</v>
+        <v>-243.3</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>-39.037</v>
+        <v>-39.125</v>
       </c>
       <c r="B221" t="n">
-        <v>2014.2</v>
+        <v>-243.24</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>-42.133</v>
+        <v>-42.187</v>
       </c>
       <c r="B222" t="n">
-        <v>2024</v>
+        <v>-243.23</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>-45.249</v>
+        <v>-45.189</v>
       </c>
       <c r="B223" t="n">
-        <v>2033.8</v>
+        <v>-243.09</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>-48.285</v>
+        <v>-48.276</v>
       </c>
       <c r="B224" t="n">
-        <v>2043.5</v>
+        <v>-243.06</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>-51.293</v>
+        <v>-51.327</v>
       </c>
       <c r="B225" t="n">
-        <v>2053.2</v>
+        <v>-243.04</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>-54.314</v>
+        <v>-54.267</v>
       </c>
       <c r="B226" t="n">
-        <v>2062.8</v>
+        <v>-242.9</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>-57.293</v>
+        <v>-57.292</v>
       </c>
       <c r="B227" t="n">
-        <v>2072.4</v>
+        <v>-242.85</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>-60.29</v>
+        <v>-60.297</v>
       </c>
       <c r="B228" t="n">
-        <v>2082</v>
+        <v>-242.77</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>-63.211</v>
+        <v>-63.166</v>
       </c>
       <c r="B229" t="n">
-        <v>2091.5</v>
+        <v>-242.66</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>-66.15300000000001</v>
+        <v>-66.11799999999999</v>
       </c>
       <c r="B230" t="n">
-        <v>2101</v>
+        <v>-242.56</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>-69.065</v>
+        <v>-69.075</v>
       </c>
       <c r="B231" t="n">
-        <v>2110.4</v>
+        <v>-242.51</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>-71.932</v>
+        <v>-71.883</v>
       </c>
       <c r="B232" t="n">
-        <v>2119.8</v>
+        <v>-242.35</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>-74.797</v>
+        <v>-74.682</v>
       </c>
       <c r="B233" t="n">
-        <v>2129.1</v>
+        <v>-242.26</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>-77.634</v>
+        <v>-77.571</v>
       </c>
       <c r="B234" t="n">
-        <v>2138.4</v>
+        <v>-242.14</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>-80.405</v>
+        <v>-80.40600000000001</v>
       </c>
       <c r="B235" t="n">
-        <v>2147.6</v>
+        <v>-242.05</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>-83.129</v>
+        <v>-83.18600000000001</v>
       </c>
       <c r="B236" t="n">
-        <v>2156.8</v>
+        <v>-241.88</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>-85.907</v>
+        <v>-85.91200000000001</v>
       </c>
       <c r="B237" t="n">
-        <v>2166</v>
+        <v>-241.81</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>-88.581</v>
+        <v>-88.61</v>
       </c>
       <c r="B238" t="n">
-        <v>2175.1</v>
+        <v>-241.67</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>-91.26600000000001</v>
+        <v>-91.286</v>
       </c>
       <c r="B239" t="n">
-        <v>2184.2</v>
+        <v>-241.58</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>-93.956</v>
+        <v>-93.962</v>
       </c>
       <c r="B240" t="n">
-        <v>2193.2</v>
+        <v>-241.38</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>-96.559</v>
+        <v>-96.563</v>
       </c>
       <c r="B241" t="n">
-        <v>2202.1</v>
+        <v>-241.27</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>-99.113</v>
+        <v>-99.065</v>
       </c>
       <c r="B242" t="n">
-        <v>2211.1</v>
+        <v>-241.07</v>
       </c>
     </row>
     <row r="243">
@@ -2374,23 +2374,23 @@
         <v>-101.67</v>
       </c>
       <c r="B243" t="n">
-        <v>2220</v>
+        <v>-240.99</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>-104.14</v>
+        <v>-104.2</v>
       </c>
       <c r="B244" t="n">
-        <v>2228.8</v>
+        <v>-240.74</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>-106.63</v>
+        <v>-106.65</v>
       </c>
       <c r="B245" t="n">
-        <v>2237.6</v>
+        <v>-240.65</v>
       </c>
     </row>
     <row r="246">
@@ -2398,7 +2398,7 @@
         <v>-109.07</v>
       </c>
       <c r="B246" t="n">
-        <v>2246.3</v>
+        <v>-240.47</v>
       </c>
     </row>
     <row r="247">
@@ -2406,55 +2406,55 @@
         <v>-111.49</v>
       </c>
       <c r="B247" t="n">
-        <v>2255</v>
+        <v>-240.36</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>-113.81</v>
+        <v>-113.88</v>
       </c>
       <c r="B248" t="n">
-        <v>2263.7</v>
+        <v>-240.22</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>-116.1</v>
+        <v>-116.14</v>
       </c>
       <c r="B249" t="n">
-        <v>2272.3</v>
+        <v>-240.01</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>-118.45</v>
+        <v>-118.4</v>
       </c>
       <c r="B250" t="n">
-        <v>2280.8</v>
+        <v>-239.85</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>-120.64</v>
+        <v>-120.65</v>
       </c>
       <c r="B251" t="n">
-        <v>2289.4</v>
+        <v>-239.64</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>-122.86</v>
+        <v>-122.8</v>
       </c>
       <c r="B252" t="n">
-        <v>2297.9</v>
+        <v>-239.49</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>-125</v>
+        <v>-125.02</v>
       </c>
       <c r="B253" t="n">
-        <v>2306.3</v>
+        <v>-239.31</v>
       </c>
     </row>
     <row r="254">
@@ -2462,119 +2462,119 @@
         <v>-127.12</v>
       </c>
       <c r="B254" t="n">
-        <v>2314.7</v>
+        <v>-239.13</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>-129.18</v>
+        <v>-129.13</v>
       </c>
       <c r="B255" t="n">
-        <v>2323.1</v>
+        <v>-238.91</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>-131.24</v>
+        <v>-131.22</v>
       </c>
       <c r="B256" t="n">
-        <v>2331.3</v>
+        <v>-238.73</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>-133.22</v>
+        <v>-133.15</v>
       </c>
       <c r="B257" t="n">
-        <v>2339.5</v>
+        <v>-238.59</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>-135.13</v>
+        <v>-135.15</v>
       </c>
       <c r="B258" t="n">
-        <v>2347.8</v>
+        <v>-238.38</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>-137.01</v>
+        <v>-137</v>
       </c>
       <c r="B259" t="n">
-        <v>2356</v>
+        <v>-238.17</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>-138.83</v>
+        <v>-138.85</v>
       </c>
       <c r="B260" t="n">
-        <v>2364.1</v>
+        <v>-237.97</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>-140.58</v>
+        <v>-140.66</v>
       </c>
       <c r="B261" t="n">
-        <v>2372.2</v>
+        <v>-237.8</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>-142.42</v>
+        <v>-142.37</v>
       </c>
       <c r="B262" t="n">
-        <v>2380.2</v>
+        <v>-237.58</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>-144.05</v>
+        <v>-144.09</v>
       </c>
       <c r="B263" t="n">
-        <v>2388.2</v>
+        <v>-237.42</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>-145.73</v>
+        <v>-145.72</v>
       </c>
       <c r="B264" t="n">
-        <v>2396.3</v>
+        <v>-237.15</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>-147.26</v>
+        <v>-147.37</v>
       </c>
       <c r="B265" t="n">
-        <v>2404.2</v>
+        <v>-236.96</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>-148.89</v>
+        <v>-148.88</v>
       </c>
       <c r="B266" t="n">
-        <v>2412.1</v>
+        <v>-236.72</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>-150.37</v>
+        <v>-150.4</v>
       </c>
       <c r="B267" t="n">
-        <v>2419.9</v>
+        <v>-236.54</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>-151.85</v>
+        <v>-151.86</v>
       </c>
       <c r="B268" t="n">
-        <v>2427.7</v>
+        <v>-236.36</v>
       </c>
     </row>
     <row r="269">
@@ -2582,103 +2582,103 @@
         <v>-153.23</v>
       </c>
       <c r="B269" t="n">
-        <v>2435.5</v>
+        <v>-236.08</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>-154.62</v>
+        <v>-154.61</v>
       </c>
       <c r="B270" t="n">
-        <v>2443.3</v>
+        <v>-235.9</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>-155.9</v>
+        <v>-155.92</v>
       </c>
       <c r="B271" t="n">
-        <v>2451</v>
+        <v>-235.66</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>-157.11</v>
+        <v>-157.1</v>
       </c>
       <c r="B272" t="n">
-        <v>2458.7</v>
+        <v>-235.51</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>-158.3</v>
+        <v>-158.4</v>
       </c>
       <c r="B273" t="n">
-        <v>2466.3</v>
+        <v>-235.18</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>-159.45</v>
+        <v>-159.5</v>
       </c>
       <c r="B274" t="n">
-        <v>2474</v>
+        <v>-234.98</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>-160.58</v>
+        <v>-160.54</v>
       </c>
       <c r="B275" t="n">
-        <v>2481.5</v>
+        <v>-234.71</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>-161.64</v>
+        <v>-161.61</v>
       </c>
       <c r="B276" t="n">
-        <v>2489.1</v>
+        <v>-234.51</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>-162.61</v>
+        <v>-162.6</v>
       </c>
       <c r="B277" t="n">
-        <v>2496.6</v>
+        <v>-234.28</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>-163.51</v>
+        <v>-163.55</v>
       </c>
       <c r="B278" t="n">
-        <v>2504</v>
+        <v>-234.11</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>-164.39</v>
+        <v>-164.4</v>
       </c>
       <c r="B279" t="n">
-        <v>2511.5</v>
+        <v>-233.82</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>-165.22</v>
+        <v>-165.26</v>
       </c>
       <c r="B280" t="n">
-        <v>2518.9</v>
+        <v>-233.62</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>-166.03</v>
+        <v>-166.07</v>
       </c>
       <c r="B281" t="n">
-        <v>2526.3</v>
+        <v>-233.39</v>
       </c>
     </row>
     <row r="282">
@@ -2686,15 +2686,15 @@
         <v>-166.77</v>
       </c>
       <c r="B282" t="n">
-        <v>2533.6</v>
+        <v>-233.15</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>-167.37</v>
+        <v>-167.38</v>
       </c>
       <c r="B283" t="n">
-        <v>2541</v>
+        <v>-232.89</v>
       </c>
     </row>
     <row r="284">
@@ -2702,103 +2702,103 @@
         <v>-168.06</v>
       </c>
       <c r="B284" t="n">
-        <v>2548.3</v>
+        <v>-232.66</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>-168.62</v>
+        <v>-168.6</v>
       </c>
       <c r="B285" t="n">
-        <v>2555.6</v>
+        <v>-232.4</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>-169.08</v>
+        <v>-169.1</v>
       </c>
       <c r="B286" t="n">
-        <v>2562.8</v>
+        <v>-232.17</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>-169.56</v>
+        <v>-169.58</v>
       </c>
       <c r="B287" t="n">
-        <v>2570.1</v>
+        <v>-231.95</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>-169.99</v>
+        <v>-169.96</v>
       </c>
       <c r="B288" t="n">
-        <v>2577.3</v>
+        <v>-231.72</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>-170.34</v>
+        <v>-170.39</v>
       </c>
       <c r="B289" t="n">
-        <v>2584.4</v>
+        <v>-231.48</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>-170.71</v>
+        <v>-170.67</v>
       </c>
       <c r="B290" t="n">
-        <v>2591.6</v>
+        <v>-231.25</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>-170.87</v>
+        <v>-170.91</v>
       </c>
       <c r="B291" t="n">
-        <v>2598.7</v>
+        <v>-231.03</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>-171.08</v>
+        <v>-171.05</v>
       </c>
       <c r="B292" t="n">
-        <v>2605.8</v>
+        <v>-230.78</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>-171.22</v>
+        <v>-171.23</v>
       </c>
       <c r="B293" t="n">
-        <v>2612.9</v>
+        <v>-230.53</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>-171.34</v>
+        <v>-171.36</v>
       </c>
       <c r="B294" t="n">
-        <v>2620</v>
+        <v>-230.26</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>-171.34</v>
+        <v>-171.36</v>
       </c>
       <c r="B295" t="n">
-        <v>2627.1</v>
+        <v>-230.03</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>-171.37</v>
+        <v>-171.33</v>
       </c>
       <c r="B296" t="n">
-        <v>2634.1</v>
+        <v>-229.78</v>
       </c>
     </row>
     <row r="297">
@@ -2806,63 +2806,63 @@
         <v>-171.29</v>
       </c>
       <c r="B297" t="n">
-        <v>2641.1</v>
+        <v>-229.63</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>-171.12</v>
+        <v>-171.16</v>
       </c>
       <c r="B298" t="n">
-        <v>2648.2</v>
+        <v>-229.36</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>-170.96</v>
+        <v>-171.01</v>
       </c>
       <c r="B299" t="n">
-        <v>2655.2</v>
+        <v>-229.07</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>-170.75</v>
+        <v>-170.73</v>
       </c>
       <c r="B300" t="n">
-        <v>2662.1</v>
+        <v>-228.85</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>-170.46</v>
+        <v>-170.53</v>
       </c>
       <c r="B301" t="n">
-        <v>2669.1</v>
+        <v>-228.69</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>-170.14</v>
+        <v>-170.11</v>
       </c>
       <c r="B302" t="n">
-        <v>2676.1</v>
+        <v>-228.4</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>-169.77</v>
+        <v>-169.76</v>
       </c>
       <c r="B303" t="n">
-        <v>2683</v>
+        <v>-228.18</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>-169.3</v>
+        <v>-169.39</v>
       </c>
       <c r="B304" t="n">
-        <v>2689.9</v>
+        <v>-227.94</v>
       </c>
     </row>
     <row r="305">
@@ -2870,207 +2870,207 @@
         <v>-168.87</v>
       </c>
       <c r="B305" t="n">
-        <v>2696.9</v>
+        <v>-227.62</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>-168.33</v>
+        <v>-168.37</v>
       </c>
       <c r="B306" t="n">
-        <v>2703.8</v>
+        <v>-227.48</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>-167.73</v>
+        <v>-167.79</v>
       </c>
       <c r="B307" t="n">
-        <v>2710.7</v>
+        <v>-227.18</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>-167.15</v>
+        <v>-167.11</v>
       </c>
       <c r="B308" t="n">
-        <v>2717.6</v>
+        <v>-227.05</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>-166.49</v>
+        <v>-166.45</v>
       </c>
       <c r="B309" t="n">
-        <v>2724.5</v>
+        <v>-226.82</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>-165.71</v>
+        <v>-165.74</v>
       </c>
       <c r="B310" t="n">
-        <v>2731.4</v>
+        <v>-226.47</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>-164.93</v>
+        <v>-164.95</v>
       </c>
       <c r="B311" t="n">
-        <v>2738.3</v>
+        <v>-226.36</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>-164.11</v>
+        <v>-164.13</v>
       </c>
       <c r="B312" t="n">
-        <v>2745.1</v>
+        <v>-226.13</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>-163.24</v>
+        <v>-163.29</v>
       </c>
       <c r="B313" t="n">
-        <v>2752</v>
+        <v>-225.91</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>-162.38</v>
+        <v>-162.34</v>
       </c>
       <c r="B314" t="n">
-        <v>2758.9</v>
+        <v>-225.64</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>-161.35</v>
+        <v>-161.38</v>
       </c>
       <c r="B315" t="n">
-        <v>2765.8</v>
+        <v>-225.48</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>-160.35</v>
+        <v>-160.39</v>
       </c>
       <c r="B316" t="n">
-        <v>2772.6</v>
+        <v>-225.17</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>-159.31</v>
+        <v>-159.33</v>
       </c>
       <c r="B317" t="n">
-        <v>2779.5</v>
+        <v>-225.02</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>-158.25</v>
+        <v>-158.18</v>
       </c>
       <c r="B318" t="n">
-        <v>2786.4</v>
+        <v>-224.83</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>-157.07</v>
+        <v>-157.05</v>
       </c>
       <c r="B319" t="n">
-        <v>2793.3</v>
+        <v>-224.59</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>-155.88</v>
+        <v>-155.9</v>
       </c>
       <c r="B320" t="n">
-        <v>2800.1</v>
+        <v>-224.34</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>-154.7</v>
+        <v>-154.63</v>
       </c>
       <c r="B321" t="n">
-        <v>2807</v>
+        <v>-224.14</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>-153.39</v>
+        <v>-153.35</v>
       </c>
       <c r="B322" t="n">
-        <v>2813.9</v>
+        <v>-223.94</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>-152.09</v>
+        <v>-152.06</v>
       </c>
       <c r="B323" t="n">
-        <v>2820.9</v>
+        <v>-223.77</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>-150.72</v>
+        <v>-150.65</v>
       </c>
       <c r="B324" t="n">
-        <v>2827.8</v>
+        <v>-223.55</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>-149.24</v>
+        <v>-149.21</v>
       </c>
       <c r="B325" t="n">
-        <v>2834.7</v>
+        <v>-223.34</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>-147.81</v>
+        <v>-147.8</v>
       </c>
       <c r="B326" t="n">
-        <v>2841.6</v>
+        <v>-223.08</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>-146.36</v>
+        <v>-146.32</v>
       </c>
       <c r="B327" t="n">
-        <v>2848.6</v>
+        <v>-222.93</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>-144.76</v>
+        <v>-144.8</v>
       </c>
       <c r="B328" t="n">
-        <v>2855.6</v>
+        <v>-222.7</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>-143.23</v>
+        <v>-143.21</v>
       </c>
       <c r="B329" t="n">
-        <v>2862.5</v>
+        <v>-222.51</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>-141.6</v>
+        <v>-141.62</v>
       </c>
       <c r="B330" t="n">
-        <v>2869.5</v>
+        <v>-222.4</v>
       </c>
     </row>
     <row r="331">
@@ -3078,103 +3078,103 @@
         <v>-139.96</v>
       </c>
       <c r="B331" t="n">
-        <v>2876.5</v>
+        <v>-222.13</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>-138.21</v>
+        <v>-138.24</v>
       </c>
       <c r="B332" t="n">
-        <v>2883.4</v>
+        <v>-221.99</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>-136.55</v>
+        <v>-136.54</v>
       </c>
       <c r="B333" t="n">
-        <v>2890.5</v>
+        <v>-221.82</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>-134.79</v>
+        <v>-134.76</v>
       </c>
       <c r="B334" t="n">
-        <v>2897.6</v>
+        <v>-221.64</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>-132.97</v>
+        <v>-132.96</v>
       </c>
       <c r="B335" t="n">
-        <v>2904.6</v>
+        <v>-221.47</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>-131.11</v>
+        <v>-131.13</v>
       </c>
       <c r="B336" t="n">
-        <v>2911.7</v>
+        <v>-221.21</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>-129.24</v>
+        <v>-129.26</v>
       </c>
       <c r="B337" t="n">
-        <v>2918.8</v>
+        <v>-221.07</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>-127.33</v>
+        <v>-127.36</v>
       </c>
       <c r="B338" t="n">
-        <v>2925.9</v>
+        <v>-220.95</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>-125.34</v>
+        <v>-125.38</v>
       </c>
       <c r="B339" t="n">
-        <v>2933.1</v>
+        <v>-220.7</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>-123.4</v>
+        <v>-123.43</v>
       </c>
       <c r="B340" t="n">
-        <v>2940.2</v>
+        <v>-220.57</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>-121.46</v>
+        <v>-121.42</v>
       </c>
       <c r="B341" t="n">
-        <v>2947.4</v>
+        <v>-220.46</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>-119.41</v>
+        <v>-119.38</v>
       </c>
       <c r="B342" t="n">
-        <v>2954.6</v>
+        <v>-220.24</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>-117.29</v>
+        <v>-117.35</v>
       </c>
       <c r="B343" t="n">
-        <v>2961.8</v>
+        <v>-220.07</v>
       </c>
     </row>
     <row r="344">
@@ -3182,143 +3182,143 @@
         <v>-115.23</v>
       </c>
       <c r="B344" t="n">
-        <v>2969.1</v>
+        <v>-219.95</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>-113.07</v>
+        <v>-113.09</v>
       </c>
       <c r="B345" t="n">
-        <v>2976.4</v>
+        <v>-219.8</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>-110.93</v>
+        <v>-110.87</v>
       </c>
       <c r="B346" t="n">
-        <v>2983.7</v>
+        <v>-219.67</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>-108.7</v>
+        <v>-108.69</v>
       </c>
       <c r="B347" t="n">
-        <v>2991.1</v>
+        <v>-219.5</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>-106.49</v>
+        <v>-106.47</v>
       </c>
       <c r="B348" t="n">
-        <v>2998.4</v>
+        <v>-219.37</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>-104.26</v>
+        <v>-104.19</v>
       </c>
       <c r="B349" t="n">
-        <v>3005.8</v>
+        <v>-219.17</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>-101.94</v>
+        <v>-101.95</v>
       </c>
       <c r="B350" t="n">
-        <v>3013.2</v>
+        <v>-219.14</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>-99.625</v>
+        <v>-99.63800000000001</v>
       </c>
       <c r="B351" t="n">
-        <v>3020.7</v>
+        <v>-218.91</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>-97.251</v>
+        <v>-97.30200000000001</v>
       </c>
       <c r="B352" t="n">
-        <v>3028.2</v>
+        <v>-218.83</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>-94.917</v>
+        <v>-94.95</v>
       </c>
       <c r="B353" t="n">
-        <v>3035.7</v>
+        <v>-218.78</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>-92.568</v>
+        <v>-92.569</v>
       </c>
       <c r="B354" t="n">
-        <v>3043.3</v>
+        <v>-218.58</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>-90.13800000000001</v>
+        <v>-90.166</v>
       </c>
       <c r="B355" t="n">
-        <v>3050.8</v>
+        <v>-218.45</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>-87.767</v>
+        <v>-87.76300000000001</v>
       </c>
       <c r="B356" t="n">
-        <v>3058.5</v>
+        <v>-218.37</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>-85.309</v>
+        <v>-85.251</v>
       </c>
       <c r="B357" t="n">
-        <v>3066.2</v>
+        <v>-218.23</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>-82.803</v>
+        <v>-82.80500000000001</v>
       </c>
       <c r="B358" t="n">
-        <v>3073.9</v>
+        <v>-218.08</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>-80.33199999999999</v>
+        <v>-80.30200000000001</v>
       </c>
       <c r="B359" t="n">
-        <v>3081.6</v>
+        <v>-217.97</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>-77.76000000000001</v>
+        <v>-77.76600000000001</v>
       </c>
       <c r="B360" t="n">
-        <v>3089.4</v>
+        <v>-217.9</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>-75.20399999999999</v>
+        <v>-75.23699999999999</v>
       </c>
       <c r="B361" t="n">
-        <v>3097.2</v>
+        <v>-217.82</v>
       </c>
     </row>
   </sheetData>
